--- a/data/trans_bre/IP7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 4,02</t>
+          <t>-6,32; 4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,95</t>
+          <t>-6,79; 2,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 7,23</t>
+          <t>-4,02; 7,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 16,36</t>
+          <t>-8,36; 14,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 144,93</t>
+          <t>-78,44; 155,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,44; 245,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,28; 733,26</t>
+          <t>-89,54; 823,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,14</t>
+          <t>-3,41; -0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,06</t>
+          <t>-1,36; 2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>-1,75; 1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,69</t>
+          <t>-0,56; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,56; -2,16</t>
+          <t>-80,12; -5,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 102,72</t>
+          <t>-40,9; 124,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 117,22</t>
+          <t>-58,62; 88,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 277,12</t>
+          <t>-31,1; 303,03</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,77</t>
+          <t>-5,44; -0,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,83</t>
+          <t>-2,48; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,8</t>
+          <t>-2,4; 0,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,66</t>
+          <t>-4,37; 1,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 170,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,38</t>
+          <t>-3,24; -0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,14</t>
+          <t>-1,38; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,02</t>
+          <t>-1,34; 0,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,17</t>
+          <t>-1,1; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -9,99</t>
+          <t>-73,33; -17,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 68,1</t>
+          <t>-46,05; 68,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 66,01</t>
+          <t>-50,34; 68,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 136,9</t>
+          <t>-38,77; 114,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,88%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 7,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 32,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,61; 193,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,49; 215,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,54; 1185,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,2%</t>
+          <t>-53,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,29%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>55,03%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,03</t>
+          <t>-3,25; 0,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 2,68</t>
+          <t>-1,53; 1,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 7,1</t>
+          <t>-1,78; 1,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,05</t>
+          <t>-0,69; 2,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,44; 155,8</t>
+          <t>-80,29; 4,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 245,77</t>
+          <t>-46,18; 103,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,7; 91,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,54; 823,16</t>
+          <t>-34,06; 237,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-53,53%</t>
+          <t>-87,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>-27,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-44,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,35%</t>
+          <t>-43,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,23</t>
+          <t>-5,32; -0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,16</t>
+          <t>-2,45; 1,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,32</t>
+          <t>-2,64; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,85</t>
+          <t>-4,8; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,12; -5,48</t>
+          <t>-100,0; 73,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 124,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,62; 88,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 303,03</t>
+          <t>-100,0; 165,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-87,55%</t>
+          <t>-51,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,82%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,4%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,99%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,88</t>
+          <t>-3,3; -0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,42</t>
+          <t>-1,47; 1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,81</t>
+          <t>-1,38; 1,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,79</t>
+          <t>-0,96; 3,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,76; -18,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,95; 64,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,57; 70,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,71; 209,25</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-51,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,16%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-8,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; -0,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 1,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 0,97</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,01</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-73,33; -17,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-46,05; 68,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-50,34; 68,59</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-38,77; 114,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
